--- a/database/Resultat.xlsx
+++ b/database/Resultat.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://equitim.sharepoint.com/Documents partages/Equitim/17 Docs communs/Cahier des charges automatisation des brochures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guigui\Documents\Code\javascript\Equitim\equitim_last\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9DDF324-6EEE-4159-AAE6-E46847E81847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D364B55F-815C-4F46-999C-74329CA6A555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B7A5E98-CE26-4591-B080-4CA431C05637}"/>
+    <workbookView xWindow="28692" yWindow="-72" windowWidth="29016" windowHeight="15816" activeTab="1" xr2:uid="{2B7A5E98-CE26-4591-B080-4CA431C05637}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="TRA" sheetId="2" r:id="rId2"/>
     <sheet name="DATE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="10000"/>
+  <calcPr calcId="181029" iterate="1" iterateCount="10000"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>Nom</t>
   </si>
@@ -46,6 +44,12 @@
   </si>
   <si>
     <t>Résultat</t>
+  </si>
+  <si>
+    <t>Resultat</t>
+  </si>
+  <si>
+    <t>Flux</t>
   </si>
 </sst>
 </file>
@@ -408,13 +412,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353DCF58-2162-48C9-AE02-4E2CA5D1EA57}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,14 +436,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7434707D-3B62-463C-8ED6-A6ECB6E0F590}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -452,7 +471,7 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
